--- a/file/未解决几个问题.xlsx
+++ b/file/未解决几个问题.xlsx
@@ -199,6 +199,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>543008</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>92963</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>37430</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228808" y="5400675"/>
+          <a:ext cx="11951505" cy="3504530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -467,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/file/未解决几个问题.xlsx
+++ b/file/未解决几个问题.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,10 @@
   </si>
   <si>
     <t>问题已解决：将children逻辑放到服务端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击链接后上面会新增相同的页签，导致文章详情可以点2遍进行文章编辑，点第2遍文章编辑的时候就带不出文章信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -104,6 +108,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -237,6 +247,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>7085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="9477375"/>
+          <a:ext cx="7686675" cy="3378935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -503,20 +551,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D21"/>
+  <dimension ref="B2:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="9" style="4"/>
     <col min="3" max="3" width="98.875" customWidth="1"/>
     <col min="4" max="4" width="36.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
@@ -527,7 +576,7 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -536,7 +585,7 @@
     </row>
     <row r="4" spans="2:4" ht="110.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:4" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -547,11 +596,19 @@
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21">
+      <c r="B21" s="4">
         <v>3</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="4">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/file/未解决几个问题.xlsx
+++ b/file/未解决几个问题.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,23 +33,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击链接后上面会新增相同的页签，导致文章详情可以点2遍进行文章编辑，点第2遍文章编辑的时候就带不出文章信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题已解决：将children逻辑放到服务端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>用户列表页面显示的角色如果超过行显示的记录数量就显示不全，是因为服务端返回的数据是包含角色的所有行明细，临时方法：将每页显示的行数大于每个用户的角色数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>名称有重复的情况、将校验规则模块化，已实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方框定义了长度，自适应屏幕不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>系统超时后会报token提示后显示空白，但是不会自动到登录页面，临时方法：删除token后刷新页面到登录页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题已解决：将children逻辑放到服务端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击链接后上面会新增相同的页签，导致文章详情可以点2遍进行文章编辑，点第2遍文章编辑的时候就带不出文章信息</t>
+    <t>新增，如果为空系统报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-descriptions的显示宽度样式需要变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉显示有延迟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -113,6 +133,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -277,6 +300,309 @@
         <a:xfrm>
           <a:off x="1390650" y="9477375"/>
           <a:ext cx="7686675" cy="3378935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5667375</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>170171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="13315951"/>
+          <a:ext cx="5610225" cy="3865870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>78813</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7351973</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>113627</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1450413" y="17602200"/>
+          <a:ext cx="7273160" cy="3685502"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7248525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>24597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>131705</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620125" y="5453847"/>
+          <a:ext cx="10771130" cy="2127727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>141353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9258300" y="6953250"/>
+          <a:ext cx="5600700" cy="2417828"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>10258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>198787</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>8813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:srcRect t="53853"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9210675" y="4715608"/>
+          <a:ext cx="6132862" cy="1627330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2324100</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>37469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="21717000"/>
+          <a:ext cx="9858375" cy="3295019"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>684657</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2722146</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>8899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1370457" y="25584149"/>
+          <a:ext cx="10257564" cy="3199775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2114551</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>19187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371601" y="29498925"/>
+          <a:ext cx="2114550" cy="3095762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -551,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D44"/>
+  <dimension ref="B2:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -572,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
@@ -589,10 +915,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
@@ -600,7 +926,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
@@ -608,7 +934,47 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="4">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="6">
+        <v>6</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B112" s="4">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B133" s="4">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B154" s="4">
+        <v>8</v>
+      </c>
+      <c r="C154" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/file/未解决几个问题.xlsx
+++ b/file/未解决几个问题.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="问题部分" sheetId="1" r:id="rId1"/>
+    <sheet name="需要优化部分" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +71,34 @@
   </si>
   <si>
     <t>下拉显示有延迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、页面数据从后台获取数据和传给后台的数据格式不统一，建议从后台获取的数据在前端统一转换为需要的数据格式，前端传给后台的数据也使用统一的数据格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、页面文件和路由命名过长，需要使用简短的命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、系统FORM校验需要编制统一的校验方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、table数据列显示需要使用统一的for显示方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑页面无法到显示列表页面，显示为空（临时解决措施：将动画效果取消）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、更新数据、插入数据校验重复（优先解决）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、现有数据展示页面过多，需要使用根据数据流来显示具体页面的方式，包括后台的数据流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,6 +632,82 @@
         <a:xfrm>
           <a:off x="1371601" y="29498925"/>
           <a:ext cx="2114550" cy="3095762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>303820</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>170863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="33299400"/>
+          <a:ext cx="7838095" cy="4695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6496050</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>46709</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>9133</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7867650" y="33432750"/>
+          <a:ext cx="7323809" cy="3133333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -877,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D154"/>
+  <dimension ref="B2:D175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -977,9 +1082,66 @@
         <v>12</v>
       </c>
     </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B175" s="4">
+        <v>10</v>
+      </c>
+      <c r="C175" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="149.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>